--- a/dati_2023/02.xlsx
+++ b/dati_2023/02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\R\elezioni\dati_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EB9229-03AE-4445-9484-BB44E256ACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00924986-98BF-49F2-B6C9-C0870B664892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>LISTA</t>
   </si>
@@ -125,21 +125,12 @@
     <t>SX-VERDI</t>
   </si>
   <si>
-    <t>Art. 1 - MDP</t>
-  </si>
-  <si>
-    <t>MDP</t>
-  </si>
-  <si>
     <t>Astensione</t>
   </si>
   <si>
     <t>EV - SI</t>
   </si>
   <si>
-    <t>Noi con l'Italia</t>
-  </si>
-  <si>
     <t>Altri 1</t>
   </si>
   <si>
@@ -161,7 +152,7 @@
     <t>Sondaggio</t>
   </si>
   <si>
-    <t>SWG 18/7/22</t>
+    <t>TECNE 21/7/22</t>
   </si>
 </sst>
 </file>
@@ -494,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +542,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -584,7 +575,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1">
-        <v>0.221</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -617,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -650,7 +641,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>0.112</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -680,7 +671,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>0.106</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -743,10 +734,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -779,7 +770,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>2.7E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -836,47 +827,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
+        <v>0.01</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>2.3E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G11" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>15</v>
-      </c>
       <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>0.01</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
@@ -884,21 +862,18 @@
         <v>0.01</v>
       </c>
       <c r="G12" s="2">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>202</v>
-      </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>0.01</v>
@@ -916,12 +891,12 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>0.01</v>
@@ -939,21 +914,21 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G15" s="2">
         <v>0.25</v>
@@ -962,58 +937,12 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
-    <sortCondition descending="1" ref="C2:C13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
+    <sortCondition descending="1" ref="C2:C11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1024,7 +953,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,18 +964,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/dati_2023/02.xlsx
+++ b/dati_2023/02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\R\elezioni\dati_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00924986-98BF-49F2-B6C9-C0870B664892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1B9B09-2F0C-4ACA-9CC4-DF78CE826BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste_naz" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>LISTA</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Movimento 5 Stelle</t>
   </si>
   <si>
-    <t>Azione + Europa</t>
-  </si>
-  <si>
-    <t>Italia Viva</t>
-  </si>
-  <si>
     <t>Italexit</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>DX</t>
   </si>
   <si>
-    <t>SX</t>
-  </si>
-  <si>
     <t>FRAZ_UNI</t>
   </si>
   <si>
@@ -104,12 +95,6 @@
     <t>M5S</t>
   </si>
   <si>
-    <t>A+E</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
     <t>ABBREV</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
     <t>EV - SI</t>
   </si>
   <si>
-    <t>Altri 1</t>
-  </si>
-  <si>
     <t>Altri 2</t>
   </si>
   <si>
@@ -152,7 +134,37 @@
     <t>Sondaggio</t>
   </si>
   <si>
-    <t>TECNE 21/7/22</t>
+    <t>Impegno civico</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>Azione + Italia Viva</t>
+  </si>
+  <si>
+    <t>AZ-IV</t>
+  </si>
+  <si>
+    <t>+Europa</t>
+  </si>
+  <si>
+    <t>+E</t>
+  </si>
+  <si>
+    <t>Altri 6</t>
+  </si>
+  <si>
+    <t>Altri 7</t>
+  </si>
+  <si>
+    <t>Altri 8</t>
+  </si>
+  <si>
+    <t>BiDiMedia media 11 ago</t>
   </si>
 </sst>
 </file>
@@ -162,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +185,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,11 +217,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -485,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,31 +527,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -539,19 +559,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="G2" s="2">
         <v>0.26</v>
@@ -563,7 +583,7 @@
         <v>240</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3"/>
     </row>
@@ -572,19 +592,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>0.23100000000000001</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0.221</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="G3" s="2">
         <v>0.3</v>
@@ -596,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3"/>
     </row>
@@ -608,16 +628,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="G4" s="2">
         <v>0.32</v>
@@ -629,7 +649,7 @@
         <v>210</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -638,16 +658,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>9.4E-2</v>
+        <v>0.105</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0.112</v>
+        <v>0.105</v>
       </c>
       <c r="G5" s="2">
         <v>0.23</v>
@@ -659,7 +679,7 @@
         <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -668,19 +688,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>0.106</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="G6" s="2">
         <v>0.28000000000000003</v>
@@ -692,28 +712,25 @@
         <v>180</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+        <v>0.05</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G7" s="2">
         <v>0.4</v>
@@ -725,28 +742,28 @@
         <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G8" s="2">
         <v>0.4</v>
@@ -758,58 +775,58 @@
         <v>120</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>2.7E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G9" s="2">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.35</v>
@@ -821,36 +838,46 @@
         <v>270</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="1">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>0.01</v>
@@ -868,12 +895,12 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>0.01</v>
@@ -891,12 +918,12 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>0.01</v>
@@ -914,21 +941,21 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G15" s="2">
         <v>0.25</v>
@@ -937,13 +964,83 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
-    <sortCondition descending="1" ref="C2:C11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
+    <sortCondition descending="1" ref="C2:C16"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -952,33 +1049,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B377E1-7781-4663-9DCF-54833628D47E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
+      <c r="A2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="2">
-        <v>0.45</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>